--- a/src/assets/excel/nasa_whitelist.xlsx
+++ b/src/assets/excel/nasa_whitelist.xlsx
@@ -14,30 +14,1299 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>address</t>
   </si>
   <si>
-    <t>0xd55d430222e66d6802015b6606745f199740581c</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>430222e66</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6802015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6606745</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>199740581</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
   </si>
   <si>
-    <t>0xc8bd9dE4336cB94bc08e12578380437cFEdE6d79</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4336</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>08e12578380437</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cFEdE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>79</t>
+    </r>
   </si>
   <si>
-    <t>0x5435e8Bb74D7Ba8F4a76287Dc0E75e203D87647e</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5435e8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>74</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76287</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0E75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>203</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>87647</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e</t>
+    </r>
   </si>
   <si>
-    <t>0x19A0cD7eAe67eb274D1aEd283dcDC4d210235Fb5</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eAe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>274</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aEd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>283</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dcDC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>210235</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
   </si>
   <si>
-    <t>0xAf5d1fEA5Ae2656DDcd6CdB37471236B5C5Dcc17</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>799</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ebbE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64102</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>57</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>814921</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5E32453923</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
   </si>
   <si>
-    <t>0xb0be25763817E0c980bC76009925f3DD10764eb2</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xAf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fEA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ae</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2656</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DDcd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CdB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37471236</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dcc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>17</t>
+    </r>
   </si>
   <si>
-    <t>0x64E675Cdbe170F050CE30F4108aC3E763344A102</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>25763817E0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>980</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76009925</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10764</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>64E675</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cdbe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>170</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>050</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3E763344</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFD4D4D4"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFB5CEA8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>102</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -45,17 +1314,31 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFB5CEA8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,8 +1349,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,18 +1365,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,9 +1387,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,11 +1440,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,38 +1455,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,23 +1473,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="9"/>
+      <color rgb="FFD4D4D4"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -212,25 +1495,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,31 +1645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,72 +1663,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -356,43 +1675,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,25 +1689,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -448,8 +1722,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -463,13 +1737,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,17 +1767,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,154 +1791,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -976,13 +2262,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="51.6153846153846" customWidth="1"/>
   </cols>
@@ -993,38 +2279,43 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
